--- a/Documents/progress 2.xlsx
+++ b/Documents/progress 2.xlsx
@@ -708,7 +708,7 @@
   <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,43 +801,43 @@
         <v>58</v>
       </c>
       <c r="D2" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F45" si="0">D2*(2*$R$12+$R$13)/2</f>
-        <v>25</v>
+        <v>17.25</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G45" si="1">F2*$R$15</f>
-        <v>4375</v>
+        <v>6900</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H45" si="2">E2/($O$34/F2+$O$33/G2+$O$35)</f>
-        <v>4.3279748882336158</v>
+        <v>4.8275417198901556</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I45" si="3">H2/$O$27</f>
-        <v>0.18159335195385801</v>
+        <v>0.20542730722936833</v>
       </c>
       <c r="J2" s="3">
         <f>I2</f>
-        <v>0.18159335195385801</v>
+        <v>0.20542730722936833</v>
       </c>
       <c r="K2" s="1">
         <v>8.8132776724553358E-2</v>
       </c>
       <c r="O2" s="1">
         <f>SUM(R2:R4)</f>
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>16</v>
@@ -871,36 +871,36 @@
       </c>
       <c r="D3" s="3">
         <f>D2+C3</f>
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>17.365000000000002</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="1"/>
-        <v>4462.5</v>
+        <v>6946.0000000000009</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="2"/>
-        <v>4.3932247847032144</v>
+        <v>4.8522094269702549</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="3"/>
-        <v>0.18433110984768733</v>
+        <v>0.20647699689235127</v>
       </c>
       <c r="J3" s="3">
         <f>J2+I3</f>
-        <v>0.36592446180154536</v>
+        <v>0.41190430412171963</v>
       </c>
       <c r="K3" s="1">
         <v>0.1777882860136934</v>
       </c>
       <c r="R3" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>17</v>
@@ -934,30 +934,30 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D45" si="4">D3+C4</f>
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>17.595000000000002</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>4637.5</v>
+        <v>7038.0000000000009</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>4.5218528235051458</v>
+        <v>4.9013166449895991</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.1897280904967194</v>
+        <v>0.20856666574423827</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4:J45" si="5">J3+I4</f>
-        <v>0.55565255229826471</v>
+        <v>0.62047096986595784</v>
       </c>
       <c r="K4" s="1">
         <v>0.27046500566721621</v>
@@ -997,30 +997,30 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>4900</v>
+        <v>7176.0000000000009</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>4.710247830829033</v>
+        <v>4.974412234863161</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.1976327761187007</v>
+        <v>0.21167711637715578</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="5"/>
-        <v>0.75328532841696538</v>
+        <v>0.83214808624311365</v>
       </c>
       <c r="K5" s="1">
         <v>0.36761386217568803</v>
@@ -1062,30 +1062,30 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>7360.0000000000009</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>4.9533067404888431</v>
+        <v>5.0708323965938513</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.20783105204848293</v>
+        <v>0.21578010198271708</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="5"/>
-        <v>0.96111638046544834</v>
+        <v>1.0479281882258307</v>
       </c>
       <c r="K6" s="1">
         <v>0.47061678068903207</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O6" s="1">
         <f>R7+(R7*O2)/R6</f>
-        <v>11.916666666666666</v>
+        <v>11.75</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>31</v>
@@ -1124,37 +1124,37 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>18.975000000000001</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>5687.5</v>
+        <v>7590.0000000000009</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>5.2447665186164425</v>
+        <v>5.1897155467011222</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.22006013364824234</v>
+        <v>0.22083895943409032</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="5"/>
-        <v>1.1811765141136907</v>
+        <v>1.2687671476599209</v>
       </c>
       <c r="K7" s="1">
         <v>0.58076783803134679</v>
       </c>
       <c r="O7" s="1">
         <f>O6*AB11</f>
-        <v>9235.4166666666661</v>
+        <v>9106.25</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>32</v>
@@ -1194,37 +1194,37 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="4"/>
-        <v>142</v>
+        <v>342</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>35.5</v>
+        <v>19.664999999999999</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>6212.5</v>
+        <v>7866</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>7.4367759983969357</v>
+        <v>7.1066949034448035</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>0.31203255937329799</v>
+        <v>0.30241254908275761</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="5"/>
-        <v>1.4932090734869887</v>
+        <v>1.5711796967426785</v>
       </c>
       <c r="K8" s="1">
         <v>0.73875418271203164</v>
       </c>
       <c r="O8" s="1">
         <f>O6*AB10</f>
-        <v>17.875</v>
+        <v>17.625</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>33</v>
@@ -1249,37 +1249,37 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>356</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>20.470000000000002</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>6825</v>
+        <v>8188.0000000000009</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>7.9257470040406304</v>
+        <v>7.3207359271093653</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>0.33254882534436214</v>
+        <v>0.31152067774933467</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="5"/>
-        <v>1.825757898831351</v>
+        <v>1.8827003744920132</v>
       </c>
       <c r="K9" s="1">
         <v>0.90929204059475177</v>
       </c>
       <c r="O9" s="1">
         <f>O6*AB12</f>
-        <v>0.59583333333333333</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>34</v>
@@ -1304,30 +1304,30 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>372</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>21.39</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>7525</v>
+        <v>8556</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>8.4499562955295797</v>
+        <v>7.5599708529069805</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>0.35454362079145091</v>
+        <v>0.32170088735774383</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="5"/>
-        <v>2.1803015196228017</v>
+        <v>2.2044012618497568</v>
       </c>
       <c r="K10" s="1">
         <v>1.093649278971955</v>
@@ -1370,30 +1370,30 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>22.425000000000001</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>8312.5</v>
+        <v>8970</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>17.999550460777701</v>
+        <v>15.644969725653205</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>0.75522589345920432</v>
+        <v>0.66574339258098747</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="5"/>
-        <v>2.9355274130820059</v>
+        <v>2.8701446544307441</v>
       </c>
       <c r="K11" s="1">
         <v>1.4921948569481023</v>
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="4"/>
-        <v>210</v>
+        <v>410</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>52.5</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>9187.5</v>
+        <v>9430</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>11.957800415488199</v>
+        <v>10.132820874185173</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="3"/>
-        <v>0.50172589155894542</v>
+        <v>0.4311838669866031</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="5"/>
-        <v>3.4372533046409512</v>
+        <v>3.3013285214173473</v>
       </c>
       <c r="K12" s="1">
         <v>1.7610837168508438</v>
@@ -1475,13 +1475,13 @@
       </c>
       <c r="O12" s="1">
         <f>R20*Z29</f>
-        <v>7425</v>
+        <v>12375</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="R12" s="1">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>21</v>
@@ -1522,43 +1522,43 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>232</v>
+        <v>432</v>
       </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>24.84</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>10150</v>
+        <v>9936</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v>15.211908982173993</v>
+        <v>12.613790701844779</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="3"/>
-        <v>0.63826191533597176</v>
+        <v>0.53675705114233108</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="5"/>
-        <v>4.0755152199769231</v>
+        <v>3.8380855725596783</v>
       </c>
       <c r="K13" s="1">
         <v>2.1086353811146861</v>
       </c>
       <c r="O13" s="1">
         <f>R20*Y29</f>
-        <v>8.25</v>
+        <v>20.625</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R13" s="1">
-        <v>0.1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>22</v>
@@ -1581,30 +1581,30 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="4"/>
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>26.220000000000002</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>11200</v>
+        <v>10488.000000000002</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>21.435612899879839</v>
+        <v>17.458332299282358</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>0.89939634544950375</v>
+        <v>0.74290775741627058</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="5"/>
-        <v>4.9749115654264271</v>
+        <v>4.5809933299759491</v>
       </c>
       <c r="K14" s="1">
         <v>2.6063908718245266</v>
@@ -1636,36 +1636,36 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="4"/>
-        <v>282</v>
+        <v>482</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>70.5</v>
+        <v>27.715</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>12337.5</v>
+        <v>11086</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
-        <v>28.224598541226136</v>
+        <v>22.660094955644034</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="3"/>
-        <v>1.1842488898416561</v>
+        <v>0.96425935981463973</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="5"/>
-        <v>6.1591604552680828</v>
+        <v>5.5452526897905887</v>
       </c>
       <c r="K15" s="1">
         <v>3.2726025145785052</v>
       </c>
       <c r="R15" s="1">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>23</v>
@@ -1685,37 +1685,37 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>29.325000000000003</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>13562.5</v>
+        <v>11730.000000000002</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
-        <v>29.631051348011834</v>
+        <v>23.529241766850546</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="3"/>
-        <v>1.2432608957207762</v>
+        <v>1.0012443305042786</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="5"/>
-        <v>7.4024213509888588</v>
+        <v>6.5464970202948676</v>
       </c>
       <c r="K16" s="1">
         <v>3.9835436224800631</v>
       </c>
       <c r="O16" s="1">
         <f>R21*AE29</f>
-        <v>5775</v>
+        <v>11550</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>46</v>
@@ -1737,43 +1737,43 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" si="4"/>
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="E17" s="1">
         <v>12</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>31.05</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>14875</v>
+        <v>12420</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>37.204777130988496</v>
+        <v>29.310235583373039</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="3"/>
-        <v>1.5610395999016153</v>
+        <v>1.2472440673775762</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="5"/>
-        <v>8.9634609508904735</v>
+        <v>7.7937410876724442</v>
       </c>
       <c r="K17" s="1">
         <v>4.8908040544112703</v>
       </c>
       <c r="O17" s="1">
         <f>R21*AD29</f>
-        <v>10.725</v>
+        <v>21.45</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="R17" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>24</v>
@@ -1793,37 +1793,37 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="4"/>
-        <v>372</v>
+        <v>572</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>32.89</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>16275</v>
+        <v>13156</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v>32.335758639698035</v>
+        <v>25.342976204664236</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="3"/>
-        <v>1.356745117749568</v>
+        <v>1.0784245193474142</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="5"/>
-        <v>10.320206068640042</v>
+        <v>8.8721656070198591</v>
       </c>
       <c r="K18" s="1">
         <v>5.692044409176833</v>
       </c>
       <c r="O18" s="1">
         <f>R21*AC29</f>
-        <v>0.16500000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>49</v>
@@ -1843,30 +1843,30 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="4"/>
-        <v>406</v>
+        <v>606</v>
       </c>
       <c r="E19" s="1">
         <v>16</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>101.5</v>
+        <v>34.844999999999999</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>17762.5</v>
+        <v>13938</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v>53.793216185245008</v>
+        <v>42.044514963802165</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="3"/>
-        <v>2.2570580217585321</v>
+        <v>1.789128296332007</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="5"/>
-        <v>12.577264090398574</v>
+        <v>10.661293903351867</v>
       </c>
       <c r="K19" s="1">
         <v>7.0460385390430114</v>
@@ -1888,30 +1888,30 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="4"/>
-        <v>442</v>
+        <v>642</v>
       </c>
       <c r="E20" s="1">
         <v>15</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>110.5</v>
+        <v>36.914999999999999</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>19337.5</v>
+        <v>14766</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>52.282634076155233</v>
+        <v>40.837849479103433</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="3"/>
-        <v>2.1936769542442756</v>
+        <v>1.7377808288980183</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="5"/>
-        <v>14.77094104464285</v>
+        <v>12.399074732249884</v>
       </c>
       <c r="K20" s="1">
         <v>8.3822949936406346</v>
@@ -1940,43 +1940,43 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="E21" s="1">
         <v>15</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>39.1</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>21000</v>
+        <v>15640</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>54.054459462905434</v>
+        <v>42.271494155366256</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="3"/>
-        <v>2.2680192781638646</v>
+        <v>1.7987869853347342</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="5"/>
-        <v>17.038960322806716</v>
+        <v>14.197861717584619</v>
       </c>
       <c r="K21" s="1">
         <v>9.7845200057100499</v>
       </c>
       <c r="O21" s="1">
         <f>R17*R26*O6</f>
-        <v>119.16666666666666</v>
+        <v>493.5</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="R21" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>27</v>
@@ -1996,37 +1996,37 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" si="4"/>
-        <v>520</v>
+        <v>720</v>
       </c>
       <c r="E22" s="1">
         <v>20</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>41.4</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>22750</v>
+        <v>16560</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>74.326340785672784</v>
+        <v>58.28240711570313</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="3"/>
-        <v>3.1185877252729841</v>
+        <v>2.4801024304554522</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="5"/>
-        <v>20.1575480480797</v>
+        <v>16.677964148040072</v>
       </c>
       <c r="K22" s="1">
         <v>11.740554396755845</v>
       </c>
       <c r="O22" s="1">
         <f>R26*R17*O7+ R17*(O12+O16)+X32</f>
-        <v>208354.16666666666</v>
+        <v>934887.5</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>32</v>
@@ -2064,37 +2064,37 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" si="4"/>
-        <v>562</v>
+        <v>762</v>
       </c>
       <c r="E23" s="1">
         <v>18</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>140.5</v>
+        <v>43.815000000000005</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>24587.5</v>
+        <v>17526.000000000004</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>68.823735230524917</v>
+        <v>54.18407697813177</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="3"/>
-        <v>2.8877091705115352</v>
+        <v>2.3057054033247564</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="5"/>
-        <v>23.045257218591235</v>
+        <v>18.983669551364827</v>
       </c>
       <c r="K23" s="1">
         <v>13.577098209596667</v>
       </c>
       <c r="O23" s="1">
         <f>R26*R17*O8+R17*(O13+O17)+X33</f>
-        <v>373.625</v>
+        <v>1723.825</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>33</v>
@@ -2103,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="Y23" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z23">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="AA23" t="s">
         <v>37</v>
@@ -2136,37 +2136,37 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="4"/>
-        <v>606</v>
+        <v>806</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>151.5</v>
+        <v>46.344999999999999</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>26512.5</v>
+        <v>18538</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>78.507019876600509</v>
+        <v>62.121823929425339</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="3"/>
-        <v>3.2940008339832385</v>
+        <v>2.6434818693372484</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="5"/>
-        <v>26.339258052574472</v>
+        <v>21.627151420702074</v>
       </c>
       <c r="K24" s="1">
         <v>15.700220339672653</v>
       </c>
       <c r="O24" s="1">
         <f>R26*R17*O9+R17*(O14+O18)+X34</f>
-        <v>20.033333333333335</v>
+        <v>71.25500000000001</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>34</v>
@@ -2175,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="Y24" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z24">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="AA24" t="s">
         <v>38</v>
@@ -2208,30 +2208,30 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="4"/>
-        <v>652</v>
+        <v>852</v>
       </c>
       <c r="E25" s="1">
         <v>20</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>48.99</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>28525</v>
+        <v>19596</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>80.437101251223524</v>
+        <v>64.028393555985161</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="3"/>
-        <v>3.3749832692821062</v>
+        <v>2.7246124917440495</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="5"/>
-        <v>29.714241321856576</v>
+        <v>24.351763912446124</v>
       </c>
       <c r="K25" s="1">
         <v>17.903635827941613</v>
@@ -2242,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="Y25" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Z25">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="AA25" t="s">
         <v>39</v>
@@ -2275,30 +2275,30 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E26" s="1">
         <v>20</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>51.75</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>30625</v>
+        <v>20700</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>82.264088033257835</v>
+        <v>65.918972599822666</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="3"/>
-        <v>3.4516400573394899</v>
+        <v>2.8050626638222411</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="5"/>
-        <v>33.165881379196065</v>
+        <v>27.156826576268365</v>
       </c>
       <c r="K26" s="1">
         <v>20.18499042380278</v>
@@ -2316,10 +2316,10 @@
         <v>1</v>
       </c>
       <c r="Y26" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z26">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AA26" t="s">
         <v>40</v>
@@ -2349,37 +2349,37 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="E27" s="1">
         <v>25</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>187.5</v>
+        <v>54.625</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>32812.5</v>
+        <v>21850</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>104.98954509704767</v>
+        <v>84.736129603279494</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="3"/>
-        <v>4.4051557383376645</v>
+        <v>3.6057927490757233</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="5"/>
-        <v>37.571037117533727</v>
+        <v>30.76261932534409</v>
       </c>
       <c r="K27" s="1">
         <v>23.131049682081258</v>
       </c>
       <c r="O27" s="1">
         <f>O21/R17</f>
-        <v>23.833333333333332</v>
+        <v>23.5</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>31</v>
@@ -2390,11 +2390,11 @@
       </c>
       <c r="Y27" s="1">
         <f>AVERAGE(Y23:Y26)</f>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="Z27">
         <f>AVERAGE(Z23:Z26)</f>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="AA27" t="s">
         <v>41</v>
@@ -2427,37 +2427,37 @@
       </c>
       <c r="D28" s="3">
         <f t="shared" si="4"/>
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>200.5</v>
+        <v>57.615000000000002</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>35087.5</v>
+        <v>23046</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>85.623829047992956</v>
+        <v>69.634111721246285</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="3"/>
-        <v>3.5926082118039004</v>
+        <v>2.9631536902657993</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="5"/>
-        <v>41.163645329337626</v>
+        <v>33.725773015609889</v>
       </c>
       <c r="K28" s="1">
         <v>25.5608842579596</v>
       </c>
       <c r="O28" s="1">
         <f>O22/R17</f>
-        <v>41670.833333333328</v>
+        <v>44518.452380952382</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>32</v>
@@ -2499,37 +2499,37 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" si="4"/>
-        <v>856</v>
+        <v>1056</v>
       </c>
       <c r="E29" s="1">
         <v>30</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>60.720000000000006</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="1"/>
-        <v>37450</v>
+        <v>24288.000000000004</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>130.74752545046047</v>
+        <v>107.17660894505777</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="3"/>
-        <v>5.4859101587605794</v>
+        <v>4.5607067636194794</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="5"/>
-        <v>46.649555488098208</v>
+        <v>38.286479779229367</v>
       </c>
       <c r="K29" s="1">
         <v>29.311311475886161</v>
       </c>
       <c r="O29" s="1">
         <f>O23/R17</f>
-        <v>74.724999999999994</v>
+        <v>82.086904761904762</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>33</v>
@@ -2540,11 +2540,11 @@
       </c>
       <c r="Y29" s="1">
         <f>Y27*Y28</f>
-        <v>1.6500000000000001</v>
+        <v>4.125</v>
       </c>
       <c r="Z29">
         <f>Z27*Z28</f>
-        <v>1485</v>
+        <v>2475</v>
       </c>
       <c r="AC29">
         <f>AC27*AC28</f>
@@ -2571,37 +2571,37 @@
       </c>
       <c r="D30" s="3">
         <f t="shared" si="4"/>
-        <v>912</v>
+        <v>1112</v>
       </c>
       <c r="E30" s="1">
         <v>28</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>63.940000000000005</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>39900</v>
+        <v>25576.000000000004</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>124.06756402831522</v>
+        <v>102.53149020421161</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="3"/>
-        <v>5.2056320571321075</v>
+        <v>4.3630421363494305</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="5"/>
-        <v>51.855187545230315</v>
+        <v>42.649521915578795</v>
       </c>
       <c r="K30" s="1">
         <v>32.906778316038768</v>
       </c>
       <c r="O30" s="1">
         <f>O24/R17</f>
-        <v>4.0066666666666668</v>
+        <v>3.3930952380952384</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>34</v>
@@ -2621,30 +2621,30 @@
       </c>
       <c r="D31" s="3">
         <f t="shared" si="4"/>
-        <v>970</v>
+        <v>1170</v>
       </c>
       <c r="E31" s="1">
         <v>32</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>242.5</v>
+        <v>67.275000000000006</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>42437.5</v>
+        <v>26910.000000000004</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>143.98779550802774</v>
+        <v>119.98192320819264</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="3"/>
-        <v>6.0414459653717936</v>
+        <v>5.105613753540112</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="5"/>
-        <v>57.896633510602108</v>
+        <v>47.755135669118907</v>
       </c>
       <c r="K31" s="1">
         <v>37.120481237991456</v>
@@ -2671,30 +2671,30 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="4"/>
-        <v>1030</v>
+        <v>1230</v>
       </c>
       <c r="E32" s="1">
         <v>35</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>257.5</v>
+        <v>70.725000000000009</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="1"/>
-        <v>45062.5</v>
+        <v>28290.000000000004</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>159.75322972363961</v>
+        <v>134.23332390945609</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="3"/>
-        <v>6.7029327156771865</v>
+        <v>5.7120563365725996</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="5"/>
-        <v>64.599566226279293</v>
+        <v>53.467192005691508</v>
       </c>
       <c r="K32" s="1">
         <v>41.839242150421022</v>
@@ -2728,37 +2728,37 @@
       </c>
       <c r="D33" s="3">
         <f t="shared" si="4"/>
-        <v>1092</v>
+        <v>1292</v>
       </c>
       <c r="E33" s="1">
         <v>30</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="1"/>
-        <v>47775</v>
+        <v>29716.000000000004</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v>138.76447637258633</v>
+        <v>117.57489063349165</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="3"/>
-        <v>5.8222857219266997</v>
+        <v>5.00318683546773</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="5"/>
-        <v>70.421851948205997</v>
+        <v>58.470378841159238</v>
       </c>
       <c r="K33" s="1">
         <v>45.974508479954871</v>
       </c>
       <c r="O33" s="1">
         <f>O28/O27</f>
-        <v>1748.4265734265732</v>
+        <v>1894.4022289766972</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>32</v>
@@ -2792,37 +2792,37 @@
       </c>
       <c r="D34" s="3">
         <f t="shared" si="4"/>
-        <v>1156</v>
+        <v>1356</v>
       </c>
       <c r="E34" s="1">
         <v>32</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>77.97</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="1"/>
-        <v>50575</v>
+        <v>31188</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
-        <v>149.86065776657102</v>
+        <v>128.03663789856165</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="3"/>
-        <v>6.2878597664295537</v>
+        <v>5.4483675701515599</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="5"/>
-        <v>76.709711714635546</v>
+        <v>63.918746411310799</v>
       </c>
       <c r="K34" s="1">
         <v>50.478261137150376</v>
       </c>
       <c r="O34" s="1">
         <f>O29/O27</f>
-        <v>3.1353146853146852</v>
+        <v>3.4930597771023302</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>33</v>
@@ -2856,37 +2856,37 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" si="4"/>
-        <v>1222</v>
+        <v>1422</v>
       </c>
       <c r="E35" s="1">
         <v>30</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>305.5</v>
+        <v>81.765000000000001</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="1"/>
-        <v>53462.5</v>
+        <v>32706</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
-        <v>142.12716573876679</v>
+        <v>122.43403031390913</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="3"/>
-        <v>5.9633775834447604</v>
+        <v>5.2099587367620908</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="5"/>
-        <v>82.673089298080299</v>
+        <v>69.128705148072896</v>
       </c>
       <c r="K35" s="1">
         <v>54.784010480280848</v>
       </c>
       <c r="O35" s="1">
         <f>O30/O27</f>
-        <v>0.16811188811188812</v>
+        <v>0.14438703140830803</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>34</v>
@@ -2913,30 +2913,30 @@
       </c>
       <c r="D36" s="3">
         <f t="shared" si="4"/>
-        <v>1290</v>
+        <v>1490</v>
       </c>
       <c r="E36" s="1">
         <v>40</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>322.5</v>
+        <v>85.674999999999997</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="1"/>
-        <v>56437.5</v>
+        <v>34270</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
-        <v>191.55834282132776</v>
+        <v>166.3638728849198</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="3"/>
-        <v>8.0374129855102563</v>
+        <v>7.0793137397838217</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="5"/>
-        <v>90.710502283590557</v>
+        <v>76.208018887856724</v>
       </c>
       <c r="K36" s="1">
         <v>60.631758844773422</v>
@@ -2954,30 +2954,30 @@
       </c>
       <c r="D37" s="3">
         <f t="shared" si="4"/>
-        <v>1360</v>
+        <v>1560</v>
       </c>
       <c r="E37" s="1">
         <v>40</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>89.7</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="1"/>
-        <v>59500</v>
+        <v>35880</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
-        <v>193.49964785554332</v>
+        <v>169.40044370226985</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="3"/>
-        <v>8.1188663435892305</v>
+        <v>7.2085295192455261</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="5"/>
-        <v>98.82936862717979</v>
+        <v>83.416548407102255</v>
       </c>
       <c r="K37" s="1">
         <v>66.581841632383643</v>
@@ -2999,30 +2999,30 @@
       </c>
       <c r="D38" s="3">
         <f t="shared" si="4"/>
-        <v>1432</v>
+        <v>1632</v>
       </c>
       <c r="E38" s="1">
         <v>40</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>358</v>
+        <v>93.84</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="1"/>
-        <v>62650</v>
+        <v>37536</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
-        <v>195.33386778451722</v>
+        <v>172.35469946840612</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="3"/>
-        <v>8.1958266203293952</v>
+        <v>7.3342425305704735</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="5"/>
-        <v>107.02519524750919</v>
+        <v>90.750790937672733</v>
       </c>
       <c r="K38" s="1">
         <v>72.629994602867114</v>
@@ -3040,30 +3040,30 @@
       </c>
       <c r="D39" s="3">
         <f t="shared" si="4"/>
-        <v>1506</v>
+        <v>1706</v>
       </c>
       <c r="E39" s="1">
         <v>44</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>376.5</v>
+        <v>98.094999999999999</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="1"/>
-        <v>65887.5</v>
+        <v>39238</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
-        <v>216.77443796066427</v>
+        <v>192.74932643525841</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="3"/>
-        <v>9.0954309633845156</v>
+        <v>8.202098997245038</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="5"/>
-        <v>116.1206262108937</v>
+        <v>98.952889934917778</v>
       </c>
       <c r="K39" s="1">
         <v>79.386319336482998</v>
@@ -3081,30 +3081,30 @@
       </c>
       <c r="D40" s="3">
         <f t="shared" si="4"/>
-        <v>1582</v>
+        <v>1782</v>
       </c>
       <c r="E40" s="1">
         <v>42</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>395.5</v>
+        <v>102.465</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
-        <v>69212.5</v>
+        <v>40986</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
-        <v>208.64270030224284</v>
+        <v>186.91753570433232</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="3"/>
-        <v>8.7542391735206788</v>
+        <v>7.9539376895460565</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="5"/>
-        <v>124.87486538441438</v>
+        <v>106.90682762446383</v>
       </c>
       <c r="K40" s="1">
         <v>85.930045785511453</v>
@@ -3133,30 +3133,30 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" si="4"/>
-        <v>1660</v>
+        <v>1860</v>
       </c>
       <c r="E41" s="1">
         <v>40</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>106.95</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="1"/>
-        <v>72625</v>
+        <v>42780</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>200.25875060936551</v>
+        <v>180.72549989445088</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="3"/>
-        <v>8.4024650605328191</v>
+        <v>7.690446804019186</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="5"/>
-        <v>133.27733044494721</v>
+        <v>114.59727442848302</v>
       </c>
       <c r="K41" s="1">
         <v>92.248376454946992</v>
@@ -3165,7 +3165,7 @@
         <v>1200</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" ref="P41:P44" si="7">O42-O41</f>
+        <f t="shared" ref="P41:P43" si="7">O42-O41</f>
         <v>300</v>
       </c>
       <c r="Q41">
@@ -3185,30 +3185,30 @@
       </c>
       <c r="D42" s="3">
         <f t="shared" si="4"/>
-        <v>1740</v>
+        <v>1940</v>
       </c>
       <c r="E42" s="1">
         <v>40</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>111.55000000000001</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="1"/>
-        <v>76125</v>
+        <v>44620.000000000007</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>201.72744777264631</v>
+        <v>183.35399885041383</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="3"/>
-        <v>8.4640887177334125</v>
+        <v>7.8022978234218652</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="5"/>
-        <v>141.74141916268061</v>
+        <v>122.39957225190489</v>
       </c>
       <c r="K42" s="1">
         <v>98.649276054363682</v>
@@ -3237,30 +3237,30 @@
       </c>
       <c r="D43" s="3">
         <f t="shared" si="4"/>
-        <v>1822</v>
+        <v>2022</v>
       </c>
       <c r="E43" s="1">
         <v>44</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>455.5</v>
+        <v>116.265</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="1"/>
-        <v>79712.5</v>
+        <v>46506</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
-        <v>223.43045777755651</v>
+        <v>204.49369540135078</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="3"/>
-        <v>9.3747045221352394</v>
+        <v>8.7018593787808847</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="5"/>
-        <v>151.11612368481585</v>
+        <v>131.10143163068577</v>
       </c>
       <c r="K43" s="1">
         <v>105.77725460008878</v>
@@ -3289,30 +3289,30 @@
       </c>
       <c r="D44" s="3">
         <f t="shared" si="4"/>
-        <v>1906</v>
+        <v>2106</v>
       </c>
       <c r="E44" s="1">
         <v>44</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>476.5</v>
+        <v>121.095</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="1"/>
-        <v>83387.5</v>
+        <v>48438</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
-        <v>224.88074186441403</v>
+        <v>207.21242156850045</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="3"/>
-        <v>9.4355556027026868</v>
+        <v>8.8175498539787416</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="5"/>
-        <v>160.55167928751854</v>
+        <v>139.9189814846645</v>
       </c>
       <c r="K44" s="1">
         <v>112.98855053916151</v>
@@ -3333,30 +3333,30 @@
       </c>
       <c r="D45" s="3">
         <f t="shared" si="4"/>
-        <v>1992</v>
+        <v>2192</v>
       </c>
       <c r="E45" s="1">
         <v>50</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>126.04</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="1"/>
-        <v>87150</v>
+        <v>50416</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
-        <v>257.10910825951237</v>
+        <v>238.46275792186378</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="3"/>
-        <v>10.787794752147372</v>
+        <v>10.147351400930374</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="5"/>
-        <v>171.3394740396659</v>
+        <v>150.06633288559487</v>
       </c>
       <c r="K45" s="1">
         <v>121.27389473284575</v>

--- a/Documents/progress 2.xlsx
+++ b/Documents/progress 2.xlsx
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +398,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +711,7 @@
   <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,30 +804,30 @@
         <v>58</v>
       </c>
       <c r="D2" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F45" si="0">D2*(2*$R$12+$R$13)/2</f>
-        <v>17.25</v>
+        <v>20.125</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G45" si="1">F2*$R$15</f>
-        <v>6900</v>
+        <v>8050</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H45" si="2">E2/($O$34/F2+$O$33/G2+$O$35)</f>
-        <v>4.8275417198901556</v>
+        <v>5.4221634218338064</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I45" si="3">H2/$O$27</f>
-        <v>0.20542730722936833</v>
+        <v>0.23073035837590666</v>
       </c>
       <c r="J2" s="3">
         <f>I2</f>
-        <v>0.20542730722936833</v>
+        <v>0.23073035837590666</v>
       </c>
       <c r="K2" s="1">
         <v>8.8132776724553358E-2</v>
@@ -871,30 +874,30 @@
       </c>
       <c r="D3" s="3">
         <f>D2+C3</f>
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>17.365000000000002</v>
+        <v>20.240000000000002</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="1"/>
-        <v>6946.0000000000009</v>
+        <v>8096.0000000000009</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="2"/>
-        <v>4.8522094269702549</v>
+        <v>5.445027483285112</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="3"/>
-        <v>0.20647699689235127</v>
+        <v>0.23170329716106861</v>
       </c>
       <c r="J3" s="3">
         <f>J2+I3</f>
-        <v>0.41190430412171963</v>
+        <v>0.46243365553697524</v>
       </c>
       <c r="K3" s="1">
         <v>0.1777882860136934</v>
@@ -933,31 +936,31 @@
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D45" si="4">D3+C4</f>
-        <v>306</v>
+        <f t="shared" ref="D4:D56" si="4">D3+C4</f>
+        <v>356</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>17.595000000000002</v>
+        <v>20.470000000000002</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>7038.0000000000009</v>
+        <v>8188.0000000000009</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>4.9013166449895991</v>
+        <v>5.4905519453320242</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.20856666574423827</v>
+        <v>0.23364050831200103</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4:J45" si="5">J3+I4</f>
-        <v>0.62047096986595784</v>
+        <v>0.69607416384897625</v>
       </c>
       <c r="K4" s="1">
         <v>0.27046500566721621</v>
@@ -997,30 +1000,30 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="4"/>
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>17.940000000000001</v>
+        <v>20.815000000000001</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>7176.0000000000009</v>
+        <v>8326</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>4.974412234863161</v>
+        <v>5.5583340014093876</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.21167711637715578</v>
+        <v>0.23652485112380373</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="5"/>
-        <v>0.83214808624311365</v>
+        <v>0.93259901497277997</v>
       </c>
       <c r="K5" s="1">
         <v>0.36761386217568803</v>
@@ -1062,30 +1065,30 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>18.400000000000002</v>
+        <v>21.275000000000002</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>7360.0000000000009</v>
+        <v>8510</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>5.0708323965938513</v>
+        <v>5.6477805437790627</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.21578010198271708</v>
+        <v>0.24033108696932182</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="5"/>
-        <v>1.0479281882258307</v>
+        <v>1.1729301019421019</v>
       </c>
       <c r="K6" s="1">
         <v>0.47061678068903207</v>
@@ -1124,30 +1127,30 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>18.975000000000001</v>
+        <v>21.85</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>7590.0000000000009</v>
+        <v>8740</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>5.1897155467011222</v>
+        <v>5.758120978137014</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.22083895943409032</v>
+        <v>0.24502642460157506</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="5"/>
-        <v>1.2687671476599209</v>
+        <v>1.4179565265436769</v>
       </c>
       <c r="K7" s="1">
         <v>0.58076783803134679</v>
@@ -1194,30 +1197,30 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="4"/>
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>19.664999999999999</v>
+        <v>22.540000000000003</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>7866</v>
+        <v>9016.0000000000018</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>7.1066949034448035</v>
+        <v>7.8512313315054669</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>0.30241254908275761</v>
+        <v>0.3340949502768284</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="5"/>
-        <v>1.5711796967426785</v>
+        <v>1.7520514768205053</v>
       </c>
       <c r="K8" s="1">
         <v>0.73875418271203164</v>
@@ -1249,30 +1252,30 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="4"/>
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>20.470000000000002</v>
+        <v>23.345000000000002</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>8188.0000000000009</v>
+        <v>9338.0000000000018</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>7.3207359271093653</v>
+        <v>8.0501522604611679</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>0.31152067774933467</v>
+        <v>0.34255967065792203</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="5"/>
-        <v>1.8827003744920132</v>
+        <v>2.0946111474784272</v>
       </c>
       <c r="K9" s="1">
         <v>0.90929204059475177</v>
@@ -1304,30 +1307,30 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="4"/>
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>21.39</v>
+        <v>24.265000000000001</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>8556</v>
+        <v>9706</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>7.5599708529069805</v>
+        <v>8.2726643814892089</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>0.32170088735774383</v>
+        <v>0.35202827155273231</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="5"/>
-        <v>2.2044012618497568</v>
+        <v>2.4466394190311593</v>
       </c>
       <c r="K10" s="1">
         <v>1.093649278971955</v>
@@ -1370,30 +1373,30 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="4"/>
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>22.425000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>8970</v>
+        <v>10120</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>15.644969725653205</v>
+        <v>17.03408726626326</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>0.66574339258098747</v>
+        <v>0.72485477728779835</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="5"/>
-        <v>2.8701446544307441</v>
+        <v>3.1714941963189576</v>
       </c>
       <c r="K11" s="1">
         <v>1.4921948569481023</v>
@@ -1442,30 +1445,30 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="4"/>
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>23.574999999999999</v>
+        <v>26.450000000000003</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>9430</v>
+        <v>10580.000000000002</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>10.132820874185173</v>
+        <v>10.97683239853216</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="3"/>
-        <v>0.4311838669866031</v>
+        <v>0.46709925100136851</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="5"/>
-        <v>3.3013285214173473</v>
+        <v>3.6385934473203259</v>
       </c>
       <c r="K12" s="1">
         <v>1.7610837168508438</v>
@@ -1522,30 +1525,30 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>24.84</v>
+        <v>27.715</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>9936</v>
+        <v>11086</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v>12.613790701844779</v>
+        <v>13.596056973386419</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="3"/>
-        <v>0.53675705114233108</v>
+        <v>0.57855561588878379</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="5"/>
-        <v>3.8380855725596783</v>
+        <v>4.21714906320911</v>
       </c>
       <c r="K13" s="1">
         <v>2.1086353811146861</v>
@@ -1581,30 +1584,30 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="4"/>
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>26.220000000000002</v>
+        <v>29.095000000000002</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>10488.000000000002</v>
+        <v>11638.000000000002</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>17.458332299282358</v>
+        <v>18.725654635144647</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>0.74290775741627058</v>
+        <v>0.79683636745296371</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="5"/>
-        <v>4.5809933299759491</v>
+        <v>5.0139854306620739</v>
       </c>
       <c r="K14" s="1">
         <v>2.6063908718245266</v>
@@ -1636,30 +1639,30 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="4"/>
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>27.715</v>
+        <v>30.59</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>11086</v>
+        <v>12236</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
-        <v>22.660094955644034</v>
+        <v>24.189725946027309</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="3"/>
-        <v>0.96425935981463973</v>
+        <v>1.0293500402564812</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="5"/>
-        <v>5.5452526897905887</v>
+        <v>6.0433354709185547</v>
       </c>
       <c r="K15" s="1">
         <v>3.2726025145785052</v>
@@ -1685,30 +1688,30 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="4"/>
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>29.325000000000003</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>11730.000000000002</v>
+        <v>12880.000000000002</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
-        <v>23.529241766850546</v>
+        <v>25.003246227187759</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="3"/>
-        <v>1.0012443305042786</v>
+        <v>1.0639679245611813</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="5"/>
-        <v>6.5464970202948676</v>
+        <v>7.107303395479736</v>
       </c>
       <c r="K16" s="1">
         <v>3.9835436224800631</v>
@@ -1737,30 +1740,30 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="E17" s="1">
         <v>12</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>31.05</v>
+        <v>33.925000000000004</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>12420</v>
+        <v>13570.000000000002</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>29.310235583373039</v>
+        <v>31.01148307819809</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="3"/>
-        <v>1.2472440673775762</v>
+        <v>1.3196375777956635</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="5"/>
-        <v>7.7937410876724442</v>
+        <v>8.4269409732753999</v>
       </c>
       <c r="K17" s="1">
         <v>4.8908040544112703</v>
@@ -1793,30 +1796,30 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="4"/>
-        <v>572</v>
+        <v>622</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>32.89</v>
+        <v>35.765000000000001</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>13156</v>
+        <v>14306</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v>25.342976204664236</v>
+        <v>26.704113845163882</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="3"/>
-        <v>1.0784245193474142</v>
+        <v>1.1363452700069736</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="5"/>
-        <v>8.8721656070198591</v>
+        <v>9.5632862432823735</v>
       </c>
       <c r="K18" s="1">
         <v>5.692044409176833</v>
@@ -1843,30 +1846,30 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="4"/>
-        <v>606</v>
+        <v>656</v>
       </c>
       <c r="E19" s="1">
         <v>16</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>34.844999999999999</v>
+        <v>37.72</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>13938</v>
+        <v>15088</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v>42.044514963802165</v>
+        <v>44.131978859860546</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="3"/>
-        <v>1.789128296332007</v>
+        <v>1.8779565472281083</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="5"/>
-        <v>10.661293903351867</v>
+        <v>11.441242790510483</v>
       </c>
       <c r="K19" s="1">
         <v>7.0460385390430114</v>
@@ -1888,30 +1891,30 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="4"/>
-        <v>642</v>
+        <v>692</v>
       </c>
       <c r="E20" s="1">
         <v>15</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>36.914999999999999</v>
+        <v>39.79</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>14766</v>
+        <v>15916</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>40.837849479103433</v>
+        <v>42.710775440939877</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="3"/>
-        <v>1.7377808288980183</v>
+        <v>1.8174798059974415</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="5"/>
-        <v>12.399074732249884</v>
+        <v>13.258722596507925</v>
       </c>
       <c r="K20" s="1">
         <v>8.3822949936406346</v>
@@ -1940,30 +1943,30 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="4"/>
-        <v>680</v>
+        <v>730</v>
       </c>
       <c r="E21" s="1">
         <v>15</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>39.1</v>
+        <v>41.975000000000001</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>15640</v>
+        <v>16790</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>42.271494155366256</v>
+        <v>44.061422957573626</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="3"/>
-        <v>1.7987869853347342</v>
+        <v>1.8749541684073883</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="5"/>
-        <v>14.197861717584619</v>
+        <v>15.133676764915313</v>
       </c>
       <c r="K21" s="1">
         <v>9.7845200057100499</v>
@@ -1996,30 +1999,30 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="E22" s="1">
         <v>20</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>41.4</v>
+        <v>44.274999999999999</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>16560</v>
+        <v>17710</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>58.28240711570313</v>
+        <v>60.560254513015259</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="3"/>
-        <v>2.4801024304554522</v>
+        <v>2.5770321069368194</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="5"/>
-        <v>16.677964148040072</v>
+        <v>17.710708871852134</v>
       </c>
       <c r="K22" s="1">
         <v>11.740554396755845</v>
@@ -2064,30 +2067,30 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" si="4"/>
-        <v>762</v>
+        <v>812</v>
       </c>
       <c r="E23" s="1">
         <v>18</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>43.815000000000005</v>
+        <v>46.690000000000005</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>17526.000000000004</v>
+        <v>18676.000000000004</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>54.18407697813177</v>
+        <v>56.138421108120298</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="3"/>
-        <v>2.3057054033247564</v>
+        <v>2.3888689833242678</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="5"/>
-        <v>18.983669551364827</v>
+        <v>20.099577855176403</v>
       </c>
       <c r="K23" s="1">
         <v>13.577098209596667</v>
@@ -2136,30 +2139,30 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="4"/>
-        <v>806</v>
+        <v>856</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>46.344999999999999</v>
+        <v>49.22</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>18538</v>
+        <v>19688</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>62.121823929425339</v>
+        <v>64.189694614708245</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="3"/>
-        <v>2.6434818693372484</v>
+        <v>2.7314763665833297</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="5"/>
-        <v>21.627151420702074</v>
+        <v>22.831054221759732</v>
       </c>
       <c r="K24" s="1">
         <v>15.700220339672653</v>
@@ -2208,30 +2211,30 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="4"/>
-        <v>852</v>
+        <v>902</v>
       </c>
       <c r="E25" s="1">
         <v>20</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>48.99</v>
+        <v>51.865000000000002</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>19596</v>
+        <v>20746</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>64.028393555985161</v>
+        <v>65.995666260403084</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="3"/>
-        <v>2.7246124917440495</v>
+        <v>2.8083262238469398</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="5"/>
-        <v>24.351763912446124</v>
+        <v>25.639380445606673</v>
       </c>
       <c r="K25" s="1">
         <v>17.903635827941613</v>
@@ -2275,30 +2278,30 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="E26" s="1">
         <v>20</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>51.75</v>
+        <v>54.625</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>20700</v>
+        <v>21850</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>65.918972599822666</v>
+        <v>67.788903682623598</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="3"/>
-        <v>2.8050626638222411</v>
+        <v>2.8846341992605788</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="5"/>
-        <v>27.156826576268365</v>
+        <v>28.52401464486725</v>
       </c>
       <c r="K26" s="1">
         <v>20.18499042380278</v>
@@ -2349,30 +2352,30 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" si="4"/>
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="1">
         <v>25</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>54.625</v>
+        <v>57.5</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>21850</v>
+        <v>23000</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>84.736129603279494</v>
+        <v>86.956155343584243</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="3"/>
-        <v>3.6057927490757233</v>
+        <v>3.7002619295142232</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="5"/>
-        <v>30.76261932534409</v>
+        <v>32.224276574381477</v>
       </c>
       <c r="K27" s="1">
         <v>23.131049682081258</v>
@@ -2427,30 +2430,30 @@
       </c>
       <c r="D28" s="3">
         <f t="shared" si="4"/>
-        <v>1002</v>
+        <v>1052</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>57.615000000000002</v>
+        <v>60.49</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>23046</v>
+        <v>24196</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>69.634111721246285</v>
+        <v>71.319776558810688</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="3"/>
-        <v>2.9631536902657993</v>
+        <v>3.0348841088855614</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="5"/>
-        <v>33.725773015609889</v>
+        <v>35.259160683267041</v>
       </c>
       <c r="K28" s="1">
         <v>25.5608842579596</v>
@@ -2499,30 +2502,30 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>1106</v>
       </c>
       <c r="E29" s="1">
         <v>30</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>60.720000000000006</v>
+        <v>63.595000000000006</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="1"/>
-        <v>24288.000000000004</v>
+        <v>25438.000000000004</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>107.17660894505777</v>
+        <v>109.57502183028866</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="3"/>
-        <v>4.5607067636194794</v>
+        <v>4.6627668863952625</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="5"/>
-        <v>38.286479779229367</v>
+        <v>39.921927569662301</v>
       </c>
       <c r="K29" s="1">
         <v>29.311311475886161</v>
@@ -2571,30 +2574,30 @@
       </c>
       <c r="D30" s="3">
         <f t="shared" si="4"/>
-        <v>1112</v>
+        <v>1162</v>
       </c>
       <c r="E30" s="1">
         <v>28</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>63.940000000000005</v>
+        <v>66.814999999999998</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>25576.000000000004</v>
+        <v>26726</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>102.53149020421161</v>
+        <v>104.65373624187924</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="3"/>
-        <v>4.3630421363494305</v>
+        <v>4.4533504783778399</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="5"/>
-        <v>42.649521915578795</v>
+        <v>44.375278048040144</v>
       </c>
       <c r="K30" s="1">
         <v>32.906778316038768</v>
@@ -2621,30 +2624,30 @@
       </c>
       <c r="D31" s="3">
         <f t="shared" si="4"/>
-        <v>1170</v>
+        <v>1220</v>
       </c>
       <c r="E31" s="1">
         <v>32</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>67.275000000000006</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>26910.000000000004</v>
+        <v>28060.000000000004</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>119.98192320819264</v>
+        <v>122.28034361850247</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="3"/>
-        <v>5.105613753540112</v>
+        <v>5.2034188773830836</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="5"/>
-        <v>47.755135669118907</v>
+        <v>49.57869692542323</v>
       </c>
       <c r="K31" s="1">
         <v>37.120481237991456</v>
@@ -2671,30 +2674,30 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="4"/>
-        <v>1230</v>
+        <v>1280</v>
       </c>
       <c r="E32" s="1">
         <v>35</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>70.725000000000009</v>
+        <v>73.600000000000009</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="1"/>
-        <v>28290.000000000004</v>
+        <v>29440.000000000004</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>134.23332390945609</v>
+        <v>136.61469628144076</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="3"/>
-        <v>5.7120563365725996</v>
+        <v>5.8133913311251382</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="5"/>
-        <v>53.467192005691508</v>
+        <v>55.392088256548369</v>
       </c>
       <c r="K32" s="1">
         <v>41.839242150421022</v>
@@ -2728,30 +2731,30 @@
       </c>
       <c r="D33" s="3">
         <f t="shared" si="4"/>
-        <v>1292</v>
+        <v>1342</v>
       </c>
       <c r="E33" s="1">
         <v>30</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>74.290000000000006</v>
+        <v>77.165000000000006</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="1"/>
-        <v>29716.000000000004</v>
+        <v>30866.000000000004</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v>117.57489063349165</v>
+        <v>119.50787116665434</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="3"/>
-        <v>5.00318683546773</v>
+        <v>5.08544132624061</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="5"/>
-        <v>58.470378841159238</v>
+        <v>60.477529582788982</v>
       </c>
       <c r="K33" s="1">
         <v>45.974508479954871</v>
@@ -2792,30 +2795,30 @@
       </c>
       <c r="D34" s="3">
         <f t="shared" si="4"/>
-        <v>1356</v>
+        <v>1406</v>
       </c>
       <c r="E34" s="1">
         <v>32</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>77.97</v>
+        <v>80.844999999999999</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="1"/>
-        <v>31188</v>
+        <v>32338</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
-        <v>128.03663789856165</v>
+        <v>129.98871786285062</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="3"/>
-        <v>5.4483675701515599</v>
+        <v>5.5314348026744948</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="5"/>
-        <v>63.918746411310799</v>
+        <v>66.008964385463472</v>
       </c>
       <c r="K34" s="1">
         <v>50.478261137150376</v>
@@ -2856,30 +2859,30 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" si="4"/>
-        <v>1422</v>
+        <v>1472</v>
       </c>
       <c r="E35" s="1">
         <v>30</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>81.765000000000001</v>
+        <v>84.64</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="1"/>
-        <v>32706</v>
+        <v>33856</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
-        <v>122.43403031390913</v>
+        <v>124.16635821069339</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="3"/>
-        <v>5.2099587367620908</v>
+        <v>5.2836748174763146</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="5"/>
-        <v>69.128705148072896</v>
+        <v>71.292639202939782</v>
       </c>
       <c r="K35" s="1">
         <v>54.784010480280848</v>
@@ -2913,30 +2916,30 @@
       </c>
       <c r="D36" s="3">
         <f t="shared" si="4"/>
-        <v>1490</v>
+        <v>1540</v>
       </c>
       <c r="E36" s="1">
         <v>40</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>85.674999999999997</v>
+        <v>88.55</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="1"/>
-        <v>34270</v>
+        <v>35420</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
-        <v>166.3638728849198</v>
+        <v>168.54999009707564</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="3"/>
-        <v>7.0793137397838217</v>
+        <v>7.172340004130878</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="5"/>
-        <v>76.208018887856724</v>
+        <v>78.464979207070655</v>
       </c>
       <c r="K36" s="1">
         <v>60.631758844773422</v>
@@ -2954,30 +2957,30 @@
       </c>
       <c r="D37" s="3">
         <f t="shared" si="4"/>
-        <v>1560</v>
+        <v>1610</v>
       </c>
       <c r="E37" s="1">
         <v>40</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>89.7</v>
+        <v>92.575000000000003</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="1"/>
-        <v>35880</v>
+        <v>37030</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
-        <v>169.40044370226985</v>
+        <v>171.46936171081697</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="3"/>
-        <v>7.2085295192455261</v>
+        <v>7.2965685834390204</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="5"/>
-        <v>83.416548407102255</v>
+        <v>85.761547790509681</v>
       </c>
       <c r="K37" s="1">
         <v>66.581841632383643</v>
@@ -2999,30 +3002,30 @@
       </c>
       <c r="D38" s="3">
         <f t="shared" si="4"/>
-        <v>1632</v>
+        <v>1682</v>
       </c>
       <c r="E38" s="1">
         <v>40</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>93.84</v>
+        <v>96.715000000000003</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="1"/>
-        <v>37536</v>
+        <v>38686</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
-        <v>172.35469946840612</v>
+        <v>174.31263565331989</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="3"/>
-        <v>7.3342425305704735</v>
+        <v>7.4175589639710591</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="5"/>
-        <v>90.750790937672733</v>
+        <v>93.179106754480742</v>
       </c>
       <c r="K38" s="1">
         <v>72.629994602867114</v>
@@ -3040,30 +3043,30 @@
       </c>
       <c r="D39" s="3">
         <f t="shared" si="4"/>
-        <v>1706</v>
+        <v>1756</v>
       </c>
       <c r="E39" s="1">
         <v>44</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>98.094999999999999</v>
+        <v>100.97</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="1"/>
-        <v>39238</v>
+        <v>40388</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
-        <v>192.74932643525841</v>
+        <v>194.78754384315994</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="3"/>
-        <v>8.202098997245038</v>
+        <v>8.2888316529004236</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="5"/>
-        <v>98.952889934917778</v>
+        <v>101.46793840738117</v>
       </c>
       <c r="K39" s="1">
         <v>79.386319336482998</v>
@@ -3081,30 +3084,30 @@
       </c>
       <c r="D40" s="3">
         <f t="shared" si="4"/>
-        <v>1782</v>
+        <v>1832</v>
       </c>
       <c r="E40" s="1">
         <v>42</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>102.465</v>
+        <v>105.34</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
-        <v>40986</v>
+        <v>42136</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
-        <v>186.91753570433232</v>
+        <v>188.7588485268725</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="3"/>
-        <v>7.9539376895460565</v>
+        <v>8.0322914266754246</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="5"/>
-        <v>106.90682762446383</v>
+        <v>109.5002298340566</v>
       </c>
       <c r="K40" s="1">
         <v>85.930045785511453</v>
@@ -3133,30 +3136,30 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" si="4"/>
-        <v>1860</v>
+        <v>1910</v>
       </c>
       <c r="E41" s="1">
         <v>40</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>106.95</v>
+        <v>109.825</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="1"/>
-        <v>42780</v>
+        <v>43930</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>180.72549989445088</v>
+        <v>182.38529940896905</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="3"/>
-        <v>7.690446804019186</v>
+        <v>7.7610765705944278</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="5"/>
-        <v>114.59727442848302</v>
+        <v>117.26130640465102</v>
       </c>
       <c r="K41" s="1">
         <v>92.248376454946992</v>
@@ -3185,30 +3188,30 @@
       </c>
       <c r="D42" s="3">
         <f t="shared" si="4"/>
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="E42" s="1">
         <v>40</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>111.55000000000001</v>
+        <v>114.42500000000001</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="1"/>
-        <v>44620.000000000007</v>
+        <v>45770.000000000007</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>183.35399885041383</v>
+        <v>184.92517288281636</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="3"/>
-        <v>7.8022978234218652</v>
+        <v>7.8691562928858021</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="5"/>
-        <v>122.39957225190489</v>
+        <v>125.13046269753683</v>
       </c>
       <c r="K42" s="1">
         <v>98.649276054363682</v>
@@ -3237,30 +3240,30 @@
       </c>
       <c r="D43" s="3">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2072</v>
       </c>
       <c r="E43" s="1">
         <v>44</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>116.265</v>
+        <v>119.14</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="1"/>
-        <v>46506</v>
+        <v>47656</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
-        <v>204.49369540135078</v>
+        <v>206.12994708691505</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="3"/>
-        <v>8.7018593787808847</v>
+        <v>8.7714871100814911</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="5"/>
-        <v>131.10143163068577</v>
+        <v>133.90194980761831</v>
       </c>
       <c r="K43" s="1">
         <v>105.77725460008878</v>
@@ -3289,30 +3292,30 @@
       </c>
       <c r="D44" s="3">
         <f t="shared" si="4"/>
-        <v>2106</v>
+        <v>2156</v>
       </c>
       <c r="E44" s="1">
         <v>44</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>121.095</v>
+        <v>123.97</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="1"/>
-        <v>48438</v>
+        <v>49588</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
-        <v>207.21242156850045</v>
+        <v>208.76180784961144</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="3"/>
-        <v>8.8175498539787416</v>
+        <v>8.883481185089849</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="5"/>
-        <v>139.9189814846645</v>
+        <v>142.78543099270814</v>
       </c>
       <c r="K44" s="1">
         <v>112.98855053916151</v>
@@ -3333,30 +3336,30 @@
       </c>
       <c r="D45" s="3">
         <f t="shared" si="4"/>
-        <v>2192</v>
+        <v>2242</v>
       </c>
       <c r="E45" s="1">
         <v>50</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>126.04</v>
+        <v>128.91499999999999</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="1"/>
-        <v>50416</v>
+        <v>51566</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
-        <v>238.46275792186378</v>
+        <v>240.13028930054847</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="3"/>
-        <v>10.147351400930374</v>
+        <v>10.218310183002062</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="5"/>
-        <v>150.06633288559487</v>
+        <v>153.00374117571022</v>
       </c>
       <c r="K45" s="1">
         <v>121.27389473284575</v>
@@ -3366,93 +3369,365 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
+      <c r="C46" s="1">
+        <v>88</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="4"/>
+        <v>2330</v>
+      </c>
+      <c r="E46" s="1">
+        <v>55</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ref="F46:F54" si="9">D46*(2*$R$12+$R$13)/2</f>
+        <v>133.97499999999999</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ref="G46:G54" si="10">F46*$R$15</f>
+        <v>53590</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" ref="H46:H54" si="11">E46/($O$34/F46+$O$33/G46+$O$35)</f>
+        <v>267.23751676921341</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" ref="I46:I54" si="12">H46/$O$27</f>
+        <v>11.371809224221847</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" ref="J46:J54" si="13">J45+I46</f>
+        <v>164.37555039993205</v>
+      </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
+      <c r="C47" s="1">
+        <v>90</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="4"/>
+        <v>2420</v>
+      </c>
+      <c r="E47" s="1">
+        <v>60</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="9"/>
+        <v>139.15</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="10"/>
+        <v>55660</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="11"/>
+        <v>294.80390095231331</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="12"/>
+        <v>12.544846849034609</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="13"/>
+        <v>176.92039724896665</v>
+      </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>92</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="4"/>
+        <v>2512</v>
+      </c>
+      <c r="E48" s="1">
+        <v>60</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="9"/>
+        <v>144.44</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="10"/>
+        <v>57776</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="11"/>
+        <v>297.97490767152891</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="12"/>
+        <v>12.679783305171442</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="13"/>
+        <v>189.60018055413809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>94</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="4"/>
+        <v>2606</v>
+      </c>
+      <c r="E49" s="1">
+        <v>60</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="9"/>
+        <v>149.845</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="10"/>
+        <v>59938</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="11"/>
+        <v>301.04732131098837</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="12"/>
+        <v>12.810524311105889</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="13"/>
+        <v>202.41070486524399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>96</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="4"/>
+        <v>2702</v>
+      </c>
+      <c r="E50" s="1">
+        <v>60</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="9"/>
+        <v>155.36500000000001</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="10"/>
+        <v>62146</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="11"/>
+        <v>304.0236786426255</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="12"/>
+        <v>12.937177814579808</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="13"/>
+        <v>215.34788267982378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>98</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="4"/>
+        <v>2800</v>
+      </c>
+      <c r="E51" s="1">
+        <v>60</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="9"/>
+        <v>161</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="10"/>
+        <v>64400</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="11"/>
+        <v>306.90656621235985</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="12"/>
+        <v>13.059853881377014</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="13"/>
+        <v>228.40773656120081</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <v>100</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="4"/>
+        <v>2900</v>
+      </c>
+      <c r="E52" s="1">
+        <v>60</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="9"/>
+        <v>166.75</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="10"/>
+        <v>66700</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="11"/>
+        <v>309.69860090579982</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="12"/>
+        <v>13.178663868331908</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="13"/>
+        <v>241.58640042953272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <v>102</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="4"/>
+        <v>3002</v>
+      </c>
+      <c r="E53" s="1">
+        <v>60</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="9"/>
+        <v>172.61500000000001</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="10"/>
+        <v>69046</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="11"/>
+        <v>312.40241311852691</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="12"/>
+        <v>13.293719707171357</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="13"/>
+        <v>254.88012013670408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>104</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="4"/>
+        <v>3106</v>
+      </c>
+      <c r="E54" s="1">
+        <v>60</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="9"/>
+        <v>178.595</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="10"/>
+        <v>71438</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="11"/>
+        <v>315.02063226739051</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="12"/>
+        <v>13.405133287974063</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="13"/>
+        <v>268.28525342467816</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
